--- a/Resultados/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="11_5DA11E9E795875C13380DE001D8DCB09B61B9D81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCC77BF-4B20-4BC2-A319-99062532CCA1}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="11_5DA11E9E795875C13380DE001D8DCB09B61B9D81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1593E2-F7F3-4FB0-8CC5-E1835CC42EC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="59">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -233,36 +233,6 @@
   <si>
     <t>Resultado 18</t>
   </si>
-  <si>
-    <t>Resultado 19</t>
-  </si>
-  <si>
-    <t>Resultado 20</t>
-  </si>
-  <si>
-    <t>Resultado 21</t>
-  </si>
-  <si>
-    <t>Resultado 22</t>
-  </si>
-  <si>
-    <t>Resultado 23</t>
-  </si>
-  <si>
-    <t>Resultado 24</t>
-  </si>
-  <si>
-    <t>Resultado 25</t>
-  </si>
-  <si>
-    <t>Resultado 26</t>
-  </si>
-  <si>
-    <t>Resultado 27</t>
-  </si>
-  <si>
-    <t>Resultado 28</t>
-  </si>
 </sst>
 </file>
 
@@ -385,10 +355,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Resultados Geral'!$C$2:$C$30</c:f>
+              <c:f>'Resultados Geral'!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -451,10 +421,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Resultados Geral'!$I$2:$I$30</c:f>
+              <c:f>'Resultados Geral'!$I$2:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.89680000000000004</c:v>
                 </c:pt>
@@ -518,7 +488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-DA70-4E83-BA67-66E9F228DBA0}"/>
+              <c16:uniqueId val="{00000001-6622-44C2-A5E2-797EF9F4A7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -528,7 +498,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-DA70-4E83-BA67-66E9F228DBA0}"/>
+              <c16:uniqueId val="{00000002-6622-44C2-A5E2-797EF9F4A7BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -540,11 +510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="767015152"/>
-        <c:axId val="767035792"/>
+        <c:axId val="682924048"/>
+        <c:axId val="682901488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="767015152"/>
+        <c:axId val="682924048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,12 +542,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767035792"/>
+        <c:crossAx val="682901488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="767035792"/>
+        <c:axId val="682901488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767015152"/>
+        <c:crossAx val="682924048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2077,23 +2047,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>477520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>71120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3153325C-B7FA-7CF2-6DAF-9D7C0572B22D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D1EA2A-AE40-0B9D-A8FA-8A163C7BAB0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2413,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA852A3D-10F1-439A-BAC8-58EF9E1192A7}">
   <sheetPr codeName="Planilha23"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B20"/>
@@ -2454,7 +2424,7 @@
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2483,7 +2453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2519,8 +2489,11 @@
       <c r="J2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2551,7 +2524,7 @@
         <v>1.0911</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2582,7 +2555,7 @@
         <v>1.2142999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2613,7 +2586,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2617,7 @@
         <v>1.3608000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2675,7 +2648,7 @@
         <v>1.4106999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2706,7 +2679,7 @@
         <v>1.4489000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2737,7 +2710,7 @@
         <v>1.4810000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2768,7 +2741,7 @@
         <v>1.5074000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2799,7 +2772,7 @@
         <v>1.5284</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2830,7 +2803,7 @@
         <v>1.5459000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2861,7 +2834,7 @@
         <v>1.5626</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2892,7 +2865,7 @@
         <v>1.5739000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2923,7 +2896,7 @@
         <v>1.5861000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3076,56 +3049,6 @@
       </c>
       <c r="I20">
         <v>1.6287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="11_5DA11E9E795875C13380DE001D8DCB09B61B9D81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C1593E2-F7F3-4FB0-8CC5-E1835CC42EC4}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="11_5DA11E9E795875C13380DE001D8DCB09B61B9D81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A95A8E-2B56-413F-9FE5-3D09A6EA4719}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,16 +2047,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>477520</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>71120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>421640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resultados/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_100ha_100ha_18%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="11_5DA11E9E795875C13380DE001D8DCB09B61B9D81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A95A8E-2B56-413F-9FE5-3D09A6EA4719}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="11_5DA11E9E795875C13380DE001D8DCB09B61B9D81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A98034A-01A8-45CE-8FB4-E8AE8D277FF6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="60">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Resultado 18</t>
+  </si>
+  <si>
+    <t>ld_100ha_100ha_18%_12m_0_TSP\</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2416,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA852A3D-10F1-439A-BAC8-58EF9E1192A7}">
   <sheetPr codeName="Planilha23"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
@@ -2424,7 +2427,7 @@
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2452,8 +2455,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>1.0911</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>1.2142999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>1.3608000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>1.4106999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>1.4489000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>1.4810000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>1.5074000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>1.5284</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>1.5459000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>1.5626</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>1.5739000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>1.5861000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
